--- a/instructions_3.xlsx
+++ b/instructions_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anzu/race_IAT_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anzu/race_IAT_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BB9F6A-9AB5-0F44-8085-60C7A25F626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D1CF2-EC4C-6546-A12D-DACD3D47B06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="-12500" windowWidth="25600" windowHeight="14880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="540" windowWidth="25600" windowHeight="14880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>instructions</t>
   </si>
@@ -51,36 +51,6 @@
     <t>or</t>
   </si>
   <si>
-    <t>Put your middle or index fingers on the E and I keys of your keyboard. Words representing the categories at the top will appear one-by-one in the middle of the screen. When the item belongs to a category on the left, press the E key; when the item belongs to a category on the right, press the I key. Items belong to only one category. If you make an error, an X will appear - fix the error by hitting the other key.
-This is a timed sorting task. GO AS FAST AS YOU CAN while making as few mistakes as possible. Going too slow or making too many errors will result in an uninterpretable score. This task will take about 5 minutes to complete.
-Press E or I to continue.</t>
-  </si>
-  <si>
-    <t>See above, the categories have changed. The items for sorting have changed as well. The rules, however, are the same.
-When the item belongs to a category on the left, press the E key; when the item belongs to a category on the right, press the I key. Items belong to only one category. An X appears after an error - fix the error by hitting the other key. GO AS FAST AS YOU CAN.
-Press E or I to continue.</t>
-  </si>
-  <si>
-    <t>See above, the four categories you saw separately now appear together. Remember, each item belongs to only one group.
-The green and white labels and items may help to identify the appropriate category. Use the E and I keys to categorize items into four groups left and right, and correct errors by hitting the other key.
-Press E or I to continue.</t>
-  </si>
-  <si>
-    <t>Sort the same four categories again. Remember to go as fast as you can while making as few mistakes as possible.
-The green and white labels and items may help to identify the appropriate category. Use the E and I keys to categorize items into the four groups left and right, and correct errors by hitting the other key.
-Press E or I to continue.</t>
-  </si>
-  <si>
-    <t>Notice above, there are only two cateogries and they have switched positions. The concept that was previously on the left is now on the right, and the concept that was on the right is now on the left. Practice this new configuration.
-Use the E and I keys to catgorize items left and right, and correct errors by hitting the other key.
-Press E or I to continue.</t>
-  </si>
-  <si>
-    <t>See above, the four categories now appear together in a new configuration. Remember, each item belongs to only one group.
-The green and white labels and items may help to identify the appropriate category. Use the E and I keys to categorize items into the four groups left and right, and correct errors by hitting the other key.
-Press E or I to continue.</t>
-  </si>
-  <si>
     <t>Bad</t>
   </si>
   <si>
@@ -91,13 +61,217 @@
   </si>
   <si>
     <t>White People</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Part 3 of 7
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Use the E key for the categories on the left.
+Use the I key for the categories on the right. 
+Each item belongs to only one category.
+If you make a mistake, a red X will appear. Press the other key to continue.
+GO AS FAST AS YOU CAN while being accurate.
+Press E or I when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Part 2 of 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Put a left finger on the E key for items that belong to the category on the left.
+Put a right finger on the I key for items that belong to the category on the right.
+If you make a mistake, a red X will appear. Press the other key to continue.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GO AS FAST AS YOU CAN while being accurate.
+Press E or I when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Part 1 of 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Put a left finger on the E key for items that belong to the category on the left.
+Put a right finger on the I key for items that belong to the category on the right.
+Items will appear one at a time.
+If you make a mistake, a red X will appear. Press the other key to continue.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GO AS FAST AS YOU CAN while being accurate.
+Press E or I when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Part 4 of 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+This is the same as the previous part.
+Use the E key for the categories on the left.
+Use the I key for the categories on the right. 
+Each item belongs to only one category.
+GO AS FAST AS YOU CAN while being accurate.
+Press E or I when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Part 5 of 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WATCH OUT, THE LABELS HAVE CHANGED POSITION!
+Use the left finger on the E for the category on the left.
+Use the right finger on the I key for the category on the right.
+GO AS FAST AS YOU CAN while being accurate.
+Press E or I when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Part 6 of 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Use the E key for the categories on the left.
+Use the I key for the categories on the right.
+Each item belongs to only one category.
+If you make a mistake, a red X will appear. Press the other key to continue.
+GO AS FAST AS YOU CAN while being accurate.
+Press E or I when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Part 7 of 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+This is the same as the previous part.
+Use the E key for the categories on the left.
+Use the I key for the categories on the right.
+Each item belongs to only one category.
+GO AS FAST AS YOU CAN while being accurate.
+Press E or I when you are ready to start.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,9 +297,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -294,9 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -305,6 +493,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -780,16 +971,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,95 +1000,95 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="204">
+    <row r="2" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="153">
+    <row r="3" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="136">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="136">
+    <row r="5" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="136">
+    <row r="6" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -909,48 +1100,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="136">
+    <row r="7" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="136">
+    <row r="8" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/instructions_3.xlsx
+++ b/instructions_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anzu/race_IAT_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D1CF2-EC4C-6546-A12D-DACD3D47B06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D0140-6127-BD4A-815A-305506FFE687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="540" windowWidth="25600" windowHeight="14880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4000" yWindow="500" windowWidth="17520" windowHeight="14880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>instructions</t>
   </si>
@@ -65,38 +65,11 @@
   <si>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">Part 3 of 7
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Use the E key for the categories on the left.
-Use the I key for the categories on the right. 
-Each item belongs to only one category.
-If you make a mistake, a red X will appear. Press the other key to continue.
-GO AS FAST AS YOU CAN while being accurate.
-Press E or I when you are ready to start.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Part 2 of 7</t>
+      <t>Part 4 of 7</t>
     </r>
     <r>
       <rPr>
@@ -108,30 +81,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Put a left finger on the E key for items that belong to the category on the left.
-Put a right finger on the I key for items that belong to the category on the right.
-If you make a mistake, a red X will appear. Press the other key to continue.
-</t>
-    </r>
+This is the same as the previous part.
+Use the 'E' key for the categories on the left.
+Use the 'I' key for the categories on the right. 
+Each item belongs to only one category.
+GO AS FAST AS YOU CAN while being accurate.
+Press 'E' or 'I' when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>GO AS FAST AS YOU CAN while being accurate.
-Press E or I when you are ready to start.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Part 1 of 7</t>
+      <t>Part 5 of 7</t>
     </r>
     <r>
       <rPr>
@@ -143,30 +108,21 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Put a left finger on the E key for items that belong to the category on the left.
-Put a right finger on the I key for items that belong to the category on the right.
-Items will appear one at a time.
-If you make a mistake, a red X will appear. Press the other key to continue.
-</t>
-    </r>
+WATCH OUT, THE LABELS HAVE CHANGED POSITION!
+Use the left finger on the 'E' for the category on the left.
+Use the right finger on the 'I' key for the category on the right.
+GO AS FAST AS YOU CAN while being accurate.
+Press 'E' or 'I' when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>GO AS FAST AS YOU CAN while being accurate.
-Press E or I when you are ready to start.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Part 4 of 7</t>
+      <t>Part 6 of 7</t>
     </r>
     <r>
       <rPr>
@@ -178,12 +134,12 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-This is the same as the previous part.
-Use the E key for the categories on the left.
-Use the I key for the categories on the right. 
+Use the 'E' key for the categories on the left.
+Use the 'I' key for the categories on the right.
 Each item belongs to only one category.
+If you make a mistake, a red X will appear. Press the other key to continue.
 GO AS FAST AS YOU CAN while being accurate.
-Press E or I when you are ready to start.</t>
+Press 'E' or 'I' when you are ready to start.</t>
     </r>
   </si>
   <si>
@@ -193,7 +149,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Part 5 of 7</t>
+      <t>Part 7 of 7</t>
     </r>
     <r>
       <rPr>
@@ -205,21 +161,23 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-WATCH OUT, THE LABELS HAVE CHANGED POSITION!
-Use the left finger on the E for the category on the left.
-Use the right finger on the I key for the category on the right.
+This is the same as the previous part.
+Use the 'E' key for the categories on the left.
+Use the 'I' key for the categories on the right.
+Each item belongs to only one category.
 GO AS FAST AS YOU CAN while being accurate.
-Press E or I when you are ready to start.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+Press 'E' or 'I' when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Part 6 of 7</t>
+      <t>Part 1 of 7</t>
     </r>
     <r>
       <rPr>
@@ -231,22 +189,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Use the E key for the categories on the left.
-Use the I key for the categories on the right.
-Each item belongs to only one category.
-If you make a mistake, a red X will appear. Press the other key to continue.
-GO AS FAST AS YOU CAN while being accurate.
-Press E or I when you are ready to start.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Part 7 of 7</t>
+Put a left finger on the '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -257,21 +209,192 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>' key for items that belong to the category on the left.
+Put a right finger on the '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' key for items that belong to the category on the right.
+Items will appear one at a time.
+If you make a mistake, a red X will appear. Press the other key to continue.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GO AS FAST AS YOU CAN while being accurate.
+Press 'E' or 'I' when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Part 2 of 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-This is the same as the previous part.
-Use the E key for the categories on the left.
-Use the I key for the categories on the right.
+Put a left finger on the '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' key for items that belong to the category on the left.
+Put a right finger on the '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' key for items that belong to the category on the right.
+If you make a mistake, a red X will appear. Press the other key to continue.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GO AS FAST AS YOU CAN while being accurate.
+Press 'E' or 'I' when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Part 3 of 7
+Use the '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' key for the categories on the left.
+Use the '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' key for the categories on the right. 
 Each item belongs to only one category.
+If you make a mistake, a red X will appear. Press the other key to continue.
 GO AS FAST AS YOU CAN while being accurate.
-Press E or I when you are ready to start.</t>
-    </r>
+Press 'E' or 'I' when you are ready to start.</t>
+    </r>
+  </si>
+  <si>
+    <t>instructionIMG</t>
+  </si>
+  <si>
+    <t>instr_1.jpg</t>
+  </si>
+  <si>
+    <t>instr_2.jpg</t>
+  </si>
+  <si>
+    <t>instr_3.jpg</t>
+  </si>
+  <si>
+    <t>instr_4.jpg</t>
+  </si>
+  <si>
+    <t>instr_5.jpg</t>
+  </si>
+  <si>
+    <t>instr_6.jpg</t>
+  </si>
+  <si>
+    <t>instr_7.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,14 +432,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -479,7 +608,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -494,6 +623,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -969,18 +1101,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69" style="1" customWidth="1"/>
+    <col min="1" max="1" width="109.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,10 +1132,13 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="170" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -1019,10 +1155,13 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -1039,10 +1178,13 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -1059,10 +1201,13 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="187" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -1079,10 +1224,13 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -1099,10 +1247,13 @@
       <c r="F6" t="s">
         <v>5</v>
       </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -1119,10 +1270,13 @@
       <c r="F7" t="s">
         <v>7</v>
       </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -1138,6 +1292,9 @@
       </c>
       <c r="F8" t="s">
         <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
